--- a/medicine/Enfance/Babilou/Babilou.xlsx
+++ b/medicine/Enfance/Babilou/Babilou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Babilou est le nom commercial en France[3] des crèches d’entreprises et de collectivités de la société Evancia S.A.S[4], au sein du groupe Babilou Family. En 2021, l'entreprise comptait 2 000 crèches dont 450 crèches Babilou et 1 500 crèches partenaires, et 5 000 salariés sur le territoire français[5]. L'entreprise fut accusée, avec d'autres, de risques de maltraitance sur mineur au cours de l'année 2023[6].
+Babilou est le nom commercial en France des crèches d’entreprises et de collectivités de la société Evancia S.A.S, au sein du groupe Babilou Family. En 2021, l'entreprise comptait 2 000 crèches dont 450 crèches Babilou et 1 500 crèches partenaires, et 5 000 salariés sur le territoire français. L'entreprise fut accusée, avec d'autres, de risques de maltraitance sur mineur au cours de l'année 2023.
 </t>
         </is>
       </c>
@@ -512,14 +524,51 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'entreprise est fondée en France en 2003 par les frères Rodolphe et Édouard Carle[7], pour qui le pays manquait de solutions d’accueil pour les enfants de moins de 3 ans, une situation qu'ils jugeaient en décalage avec la dynamique des naissances et le taux d’emploi des femmes en France, figurant alors parmi les plus élevés d’Europe[8]. Leur premier jardin d’éveil « Les Tilleuls » vit le jour à Boulogne-Billancourt (Hauts-de-Seine)[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise est fondée en France en 2003 par les frères Rodolphe et Édouard Carle, pour qui le pays manquait de solutions d’accueil pour les enfants de moins de 3 ans, une situation qu'ils jugeaient en décalage avec la dynamique des naissances et le taux d’emploi des femmes en France, figurant alors parmi les plus élevés d’Europe. Leur premier jardin d’éveil « Les Tilleuls » vit le jour à Boulogne-Billancourt (Hauts-de-Seine).
 En 2004, les crèches Babilou devinrent conventionnées, à la suite de l'ouverture des dispositifs financiers de la CNAF au secteur privé, permettant aux familles de bénéficier du même tarif qu’en crèche municipale.
-Entre 2008 et 2013, le groupe « Alpha Private Equity Fund 5 » possédait 46 % du capital[10]. Au cours de cette période, les frères Carle étendirent leur réseau, se rapprochant d’autres gestionnaires de crèches (Iziy-Les enfants d'abord !, Tout Petit Monde, Garderisettes, et La Ronde des Crèches) afin de former le groupe Babilou.
-A partir de 2013, l'entreprise commence a s'étendre à l'étranger[11]. En 2014, Babilou rachète les crèches 123 Soleil. La même année, la Société Générale Capital Partenaires ainsi que la société belge Copeba rentraient au capital de l'entreprise[10] suivies en 2017 par le fonds d'investissement TA Associates[12]. En 2020, le fonds d'investissement Antin Partners devenait actionnaire majoritaire[13],[14], bien que la famille Carle reste actionnaire de référence[15],[16],[17].
-Marques internationales
-Babilou s'étandait à l'étranger en Belgique pour la première fois en 2014 après le rachat de deux établissements[8]. La marque Babilou Family est créée en 2019, et englobe l'ensemble de ses marques dans le monde, en plus de "Babilou" en France[18]. En 2021, le groupe réclamait 2 200 crèches et structures partenaires ainsi que 10 000 employés[19] dans 12 pays, avec les marques locales :
+Entre 2008 et 2013, le groupe « Alpha Private Equity Fund 5 » possédait 46 % du capital. Au cours de cette période, les frères Carle étendirent leur réseau, se rapprochant d’autres gestionnaires de crèches (Iziy-Les enfants d'abord !, Tout Petit Monde, Garderisettes, et La Ronde des Crèches) afin de former le groupe Babilou.
+A partir de 2013, l'entreprise commence a s'étendre à l'étranger. En 2014, Babilou rachète les crèches 123 Soleil. La même année, la Société Générale Capital Partenaires ainsi que la société belge Copeba rentraient au capital de l'entreprise suivies en 2017 par le fonds d'investissement TA Associates. En 2020, le fonds d'investissement Antin Partners devenait actionnaire majoritaire bien que la famille Carle reste actionnaire de référence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Babilou</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Babilou</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Marques internationales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Babilou s'étandait à l'étranger en Belgique pour la première fois en 2014 après le rachat de deux établissements. La marque Babilou Family est créée en 2019, et englobe l'ensemble de ses marques dans le monde, en plus de "Babilou" en France. En 2021, le groupe réclamait 2 200 crèches et structures partenaires ainsi que 10 000 employés dans 12 pays, avec les marques locales :
 France : Babilou, Crèche &amp; Go
 Allemagne : Denk Mit!, Wichtel Akademie, MiniMax
 Luxembourg : KidsCare
@@ -535,34 +584,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Babilou</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Babilou</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Accusations de mauvais traitements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2023, le groupe est accusé de mauvaises pratiques et maltraitance à la suite de la publication d'un rapport de l'Inspection générale des affaires sociales[20], aux côtés des trois autres grand groupes de crèches privées français (Les petits chaperons rouges, People &amp; Baby, et La maison bleue)[21].
-L'affaire prit une plus grande ampleur médiatique à la suite de la publication de deux livres d'enquête critiquant le secteur des crèches françaises plus largement. Les responsables de Babilou furent alors convoqués par la ministre Aurore Bergé[22]. L'affaire entraina la fermeture de certains établissements dont celui de Narbonne, « pour garantir la sécurité des enfants[23] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, le groupe est accusé de mauvaises pratiques et maltraitance à la suite de la publication d'un rapport de l'Inspection générale des affaires sociales, aux côtés des trois autres grand groupes de crèches privées français (Les petits chaperons rouges, People &amp; Baby, et La maison bleue).
+L'affaire prit une plus grande ampleur médiatique à la suite de la publication de deux livres d'enquête critiquant le secteur des crèches françaises plus largement. Les responsables de Babilou furent alors convoqués par la ministre Aurore Bergé. L'affaire entraina la fermeture de certains établissements dont celui de Narbonne, « pour garantir la sécurité des enfants ».
 </t>
         </is>
       </c>
